--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -46,9 +46,6 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
@@ -58,69 +55,69 @@
     <t>however</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -130,39 +127,42 @@
     <t>money</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -178,67 +178,67 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>game</t>
   </si>
   <si>
     <t>play</t>
@@ -671,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -771,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K5">
-        <v>0.8602150537634409</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K6">
-        <v>0.8148148148148148</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7204301075268817</v>
+        <v>0.671875</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K7">
-        <v>0.703125</v>
+        <v>0.71875</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6875</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>57</v>
@@ -971,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6621621621621622</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K9">
-        <v>0.5652173913043478</v>
+        <v>0.5466284074605452</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6181818181818182</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K10">
-        <v>0.5494978479196556</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L10">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>314</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6041666666666666</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K11">
-        <v>0.491701244813278</v>
+        <v>0.5020746887966805</v>
       </c>
       <c r="L11">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M11">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6019417475728155</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C12">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K12">
-        <v>0.460655737704918</v>
+        <v>0.4549180327868853</v>
       </c>
       <c r="L12">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M12">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K13">
-        <v>0.3313253012048193</v>
+        <v>0.3547400611620795</v>
       </c>
       <c r="L13">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>111</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5798319327731093</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K14">
-        <v>0.3211009174311927</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>222</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5185185185185185</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K15">
-        <v>0.3174603174603174</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4811594202898551</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C16">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D16">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K16">
-        <v>0.3</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.453125</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K17">
-        <v>0.1953125</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,7 +1421,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4489795918367347</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -1439,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K18">
-        <v>0.1807228915662651</v>
+        <v>0.1953125</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>204</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K19">
-        <v>0.1774193548387097</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1521,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4333333333333333</v>
+        <v>0.4028436018957346</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K20">
-        <v>0.1746031746031746</v>
+        <v>0.184</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1571,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4096385542168675</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1589,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K21">
-        <v>0.1678321678321678</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4028436018957346</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,31 +1639,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K22">
-        <v>0.1498685363716039</v>
+        <v>0.1570175438596491</v>
       </c>
       <c r="L22">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M22">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>970</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,13 +1671,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3809523809523809</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1689,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K23">
-        <v>0.08356545961002786</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1721,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.375</v>
+        <v>0.3671875</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1739,31 +1739,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K24">
-        <v>0.08021390374331551</v>
+        <v>0.07597402597402597</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>344</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1771,13 +1771,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3622047244094488</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1789,31 +1789,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K25">
-        <v>0.07272727272727272</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="L25">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1428</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,13 +1821,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3473684210526316</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1839,31 +1839,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K26">
-        <v>0.044</v>
+        <v>0.04394141145139813</v>
       </c>
       <c r="L26">
         <v>33</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1871,13 +1871,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2921348314606741</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1897,13 +1897,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2673267326732673</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="C28">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1923,13 +1923,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2307692307692308</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1949,13 +1949,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2010309278350516</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>155</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1975,13 +1975,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1847826086956522</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>225</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2001,13 +2001,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1708860759493671</v>
+        <v>0.1617210682492582</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="D32">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>262</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2027,13 +2027,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1613924050632911</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2053,25 +2053,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1572700296735905</v>
+        <v>0.1354466858789625</v>
       </c>
       <c r="C34">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="D34">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>568</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2079,13 +2079,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1542056074766355</v>
+        <v>0.135</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2105,13 +2105,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.146551724137931</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C36">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>297</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2131,13 +2131,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.145</v>
+        <v>0.118942731277533</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>171</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2157,25 +2157,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1277533039647577</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="C38">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>396</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2183,25 +2183,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09677419354838709</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2209,25 +2209,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.09398496240601503</v>
+        <v>0.078125</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F40">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>241</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2235,13 +2235,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.07123287671232877</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2261,25 +2261,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.06435643564356436</v>
+        <v>0.06197183098591549</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>567</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2287,13 +2287,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0623608017817372</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="C43">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>421</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2313,25 +2313,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.05095541401273886</v>
+        <v>0.0356234096692112</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E44">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="F44">
-        <v>0.8200000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>745</v>
+        <v>758</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2339,25 +2339,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.03993855606758832</v>
+        <v>0.03369065849923431</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="F45">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
